--- a/data/trans_camb/P16A_n_R3-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16A_n_R3-Clase-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.010770271582755</v>
+        <v>-1.939135784849991</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.628315332433076</v>
+        <v>-1.6771381306686</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.5350340768431795</v>
+        <v>-0.5788440988878317</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.671606567427986</v>
+        <v>-1.665578044716537</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.391575454086013</v>
+        <v>-2.380456283756329</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3766702060535164</v>
+        <v>0.5054184780760693</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.176934652080896</v>
+        <v>-1.399625173021613</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.377527340881017</v>
+        <v>-1.418133956198474</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.5258221930977509</v>
+        <v>0.6067302435872219</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.458546271479249</v>
+        <v>1.669229435684258</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.69730872164039</v>
+        <v>1.798718155242926</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.732497773684937</v>
+        <v>2.76937458068835</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.104347884623724</v>
+        <v>3.12308908678423</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.646293377262356</v>
+        <v>1.797884077287354</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>5.105863584805111</v>
+        <v>5.13673518791652</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.697526046741682</v>
+        <v>1.365118602988792</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.276562205379178</v>
+        <v>1.197742358730726</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>3.335349036495651</v>
+        <v>3.389867913319564</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.01742275147629171</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.7599170186116647</v>
+        <v>0.7599170186116645</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.3680526535049484</v>
@@ -769,7 +769,7 @@
         <v>-0.05707103846604123</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>1.239615210240875</v>
+        <v>1.239615210240874</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-1</v>
+        <v>-0.8805718249023339</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.7541304351052994</v>
+        <v>-0.7504542940811491</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3021163785026629</v>
+        <v>-0.3130000344869339</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.6890318013724646</v>
+        <v>-0.6280722654734874</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.8439650675745142</v>
+        <v>-0.8467026953021713</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.05050205386190813</v>
+        <v>-0.001367343284072923</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.5602174104842446</v>
+        <v>-0.6319075260854501</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.6160437734476312</v>
+        <v>-0.6085902787185925</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.1467394606711661</v>
+        <v>0.1229162013505994</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>2.394001604938913</v>
+        <v>2.960443601044231</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>2.328676395302917</v>
+        <v>2.364683333789376</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>3.522707938227414</v>
+        <v>3.334691503318689</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>5.083794635964647</v>
+        <v>4.288144355750464</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>3.030873356395609</v>
+        <v>2.947641814674097</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>7.357707011611981</v>
+        <v>7.40091500471424</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.985617591387945</v>
+        <v>1.47075976046379</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.359942502334288</v>
+        <v>1.280475334115215</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>3.342348780002794</v>
+        <v>3.237927847167521</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-0.4102567440206546</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3.642670681382565</v>
+        <v>3.642670681382564</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>1.86183370974273</v>
@@ -878,7 +878,7 @@
         <v>0.372704023970752</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>4.186671383781293</v>
+        <v>4.18667138378129</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.2740104346941638</v>
+        <v>-0.2501067968608811</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.468111790339307</v>
+        <v>-1.4918255699443</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.845758138673967</v>
+        <v>1.857342961595708</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3461910653347381</v>
+        <v>0.2844901045692672</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.1023431098113095</v>
+        <v>-0.2059541808194728</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>3.175978210323207</v>
+        <v>3.185793507330271</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.3845179241366354</v>
+        <v>0.3676049939181849</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.4814981516234316</v>
+        <v>-0.4529825958608742</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>2.893885729338406</v>
+        <v>2.859447396997944</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.343710510272881</v>
+        <v>3.696994674266244</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6298544402531482</v>
+        <v>0.5079499611706655</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.66893620825614</v>
+        <v>5.723472702945513</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.241430374035676</v>
+        <v>4.016283330382168</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.960369167943848</v>
+        <v>2.905842746821738</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>6.769249786001152</v>
+        <v>6.905790644019671</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.04577528184078</v>
+        <v>3.015603835592905</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.28409991473126</v>
+        <v>1.297481992851616</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>5.558706670556754</v>
+        <v>5.584803896636275</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.5645233623076845</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>5.012404380438851</v>
+        <v>5.01240438043885</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>3.588322491816639</v>
@@ -983,7 +983,7 @@
         <v>0.5991048692551487</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>6.729884977553662</v>
+        <v>6.729884977553659</v>
       </c>
     </row>
     <row r="14">
@@ -993,30 +993,26 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="6" t="n">
-        <v>-0.6374797054243645</v>
-      </c>
+      <c r="C14" s="6" t="inlineStr"/>
       <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="n">
-        <v>0.7602982976136173</v>
+        <v>0.9743716443716839</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.4565611125606417</v>
-      </c>
-      <c r="G14" s="6" t="n">
-        <v>-0.6244930700413317</v>
-      </c>
+        <v>-0.4041414421024958</v>
+      </c>
+      <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="n">
-        <v>1.488951905931662</v>
+        <v>1.785157728406947</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02470168096225474</v>
+        <v>0.08488853132531038</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.6827444280343669</v>
+        <v>-0.5835946273664493</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>2.123597319775583</v>
+        <v>2.260808643182975</v>
       </c>
     </row>
     <row r="15">
@@ -1029,19 +1025,19 @@
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="n">
-        <v>21.12923363833245</v>
+        <v>22.50265780948454</v>
       </c>
       <c r="F15" s="6" t="inlineStr"/>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>11.42049060954526</v>
+        <v>13.25193572247217</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>4.762745024108124</v>
+        <v>6.227970098216529</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>20.3557258045365</v>
+        <v>21.55968443179908</v>
       </c>
     </row>
     <row r="16">
@@ -1062,7 +1058,7 @@
         <v>-0.3509388677345691</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4.970553008088541</v>
+        <v>4.97055300808854</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.6454284672922386</v>
@@ -1071,7 +1067,7 @@
         <v>2.749281781247022</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>9.374396034992849</v>
+        <v>9.374396034992847</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>1.369539827543511</v>
@@ -1091,31 +1087,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.346182279110139</v>
+        <v>-0.3153527546738232</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.757321395404394</v>
+        <v>-1.899248104362505</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.697031363730185</v>
+        <v>2.725641167547977</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.023804715253075</v>
+        <v>-3.136772075846814</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.464166282062342</v>
+        <v>-1.258388160830739</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>4.979643351055727</v>
+        <v>4.656116722791944</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.2371321480962087</v>
+        <v>-0.254089001642357</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.225593734365515</v>
+        <v>-1.083514010450281</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>4.385007804031703</v>
+        <v>4.28161540472451</v>
       </c>
     </row>
     <row r="18">
@@ -1126,31 +1122,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.613756697092269</v>
+        <v>3.487560998163891</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9372443315038658</v>
+        <v>1.012375986076542</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.753596561620391</v>
+        <v>7.545188447888284</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.782282327374392</v>
+        <v>3.774273016282339</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>7.533100677329331</v>
+        <v>7.825683757813367</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>13.56568290626915</v>
+        <v>13.463566103748</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.202161610864054</v>
+        <v>3.282439372754652</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.935653106215262</v>
+        <v>1.999422350846767</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>8.707030491867977</v>
+        <v>8.295857988204975</v>
       </c>
     </row>
     <row r="19">
@@ -1167,7 +1163,7 @@
         <v>-0.2400215769597529</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>3.399566366258995</v>
+        <v>3.399566366258994</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.2225398340493119</v>
@@ -1196,31 +1192,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2881184189309795</v>
+        <v>-0.252459564257962</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.8424353096311269</v>
+        <v>-0.8204739864495578</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.9053223245582153</v>
+        <v>0.8738661587564565</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.6312802602268182</v>
+        <v>-0.6494120652909842</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.5002864912880691</v>
+        <v>-0.4251175460995582</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8626516435632361</v>
+        <v>0.6962836587548762</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1435899454369025</v>
+        <v>-0.1554897579188897</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.5205814945760908</v>
+        <v>-0.4568875213278076</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>1.503540193762524</v>
+        <v>1.502808345133316</v>
       </c>
     </row>
     <row r="21">
@@ -1231,31 +1227,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>4.517267751829487</v>
+        <v>4.125561467682191</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.403283343698547</v>
+        <v>1.431535172566492</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>9.223411696137658</v>
+        <v>8.968779415203251</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>3.465401773102474</v>
+        <v>3.244696723038663</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>5.959897423614247</v>
+        <v>6.854042530614402</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>11.18116315640325</v>
+        <v>10.71552931994675</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>2.889551770553141</v>
+        <v>3.091349447703356</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.751936861989722</v>
+        <v>1.869770518056138</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>8.329150272267938</v>
+        <v>8.113413719252259</v>
       </c>
     </row>
     <row r="22">
@@ -1276,7 +1272,7 @@
         <v>0.09595227463760937</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3.870752026966878</v>
+        <v>3.870752026966879</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>1.13820506117759</v>
@@ -1285,7 +1281,7 @@
         <v>0.7751287841296441</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>3.724949960244391</v>
+        <v>3.724949960244392</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>0.4412916384617039</v>
@@ -1305,31 +1301,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.148078315395834</v>
+        <v>-1.077482454986668</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.9298955548665583</v>
+        <v>-0.9365415741176272</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.445945961867945</v>
+        <v>2.544645384217988</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.4544737187561839</v>
+        <v>-0.6635789231683451</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.7435593376393526</v>
+        <v>-0.8166935307600863</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>2.047297068257501</v>
+        <v>2.024256566554914</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.4328696411822178</v>
+        <v>-0.5641964649146218</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.5569710643125798</v>
+        <v>-0.5746363619360393</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>2.810886414994872</v>
+        <v>2.77432372550859</v>
       </c>
     </row>
     <row r="24">
@@ -1340,31 +1336,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.9805170221536846</v>
+        <v>0.9769580247822657</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.213441108966175</v>
+        <v>1.207969182478326</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5.310443007288927</v>
+        <v>5.420183346288146</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.781914238084941</v>
+        <v>2.80495347240173</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.470870116083936</v>
+        <v>2.396259977745847</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>5.362745178484266</v>
+        <v>5.249688267800893</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.467255727298317</v>
+        <v>1.399678761348738</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.250883331532757</v>
+        <v>1.390178507225613</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>4.971679332442624</v>
+        <v>4.984480076161047</v>
       </c>
     </row>
     <row r="25">
@@ -1410,31 +1406,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.5265511527485609</v>
+        <v>-0.4761081439985283</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.4371140229353691</v>
+        <v>-0.4169895318242459</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.9103973680098935</v>
+        <v>0.9839442878029678</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.1705502664936564</v>
+        <v>-0.2275205216525551</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.274985300077328</v>
+        <v>-0.2782553545972612</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5871334003796549</v>
+        <v>0.5865573465799969</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1969013355936764</v>
+        <v>-0.2681417766294425</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.2236254068188566</v>
+        <v>-0.2463779293276581</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>1.071797010127137</v>
+        <v>1.070726995260392</v>
       </c>
     </row>
     <row r="27">
@@ -1445,31 +1441,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.7816846141184454</v>
+        <v>0.7469625329464147</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.9350816508334093</v>
+        <v>0.9492528133638176</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>3.949598799199036</v>
+        <v>4.011400327355715</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.895244383175636</v>
+        <v>1.864245375679406</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.733121126913399</v>
+        <v>1.670760702521153</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>3.393927482397585</v>
+        <v>3.588232883467941</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8779329220055138</v>
+        <v>0.8631175627386595</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.7987178446657841</v>
+        <v>0.821834112714369</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>3.149468640353273</v>
+        <v>3.328571891926664</v>
       </c>
     </row>
     <row r="28">
@@ -1490,7 +1486,7 @@
         <v>0.801820770543039</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2.687941814144097</v>
+        <v>2.687941814144096</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>4.081765373710327</v>
@@ -1508,7 +1504,7 @@
         <v>2.393601449365253</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>8.729880518421995</v>
+        <v>8.729880518421993</v>
       </c>
     </row>
     <row r="29">
@@ -1519,31 +1515,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-2.610822544403485</v>
+        <v>-2.49090133432103</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.227761266047266</v>
+        <v>-1.391157574570473</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.5891349731876798</v>
+        <v>0.4213220008630173</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1.848712104761061</v>
+        <v>2.107290296371749</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>1.576499681393317</v>
+        <v>1.622935822316147</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>10.57075627951821</v>
+        <v>10.56615293662324</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.6787019273379196</v>
+        <v>0.857427012720656</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.8708155804768789</v>
+        <v>1.048987928833597</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>7.072963980274753</v>
+        <v>7.172351010055079</v>
       </c>
     </row>
     <row r="30">
@@ -1554,31 +1550,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.263233253026253</v>
+        <v>1.160856750089974</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.802694265736558</v>
+        <v>2.659239116567157</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4.619263794530467</v>
+        <v>4.70541169792838</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>6.264574394092199</v>
+        <v>6.141589326184548</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>5.770137686874255</v>
+        <v>5.912223597061864</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>14.9057081051816</v>
+        <v>15.054019424088</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>3.704843896432785</v>
+        <v>3.949471791581566</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>3.870416043993379</v>
+        <v>3.877880040143738</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>10.36666016238842</v>
+        <v>10.33227530498167</v>
       </c>
     </row>
     <row r="31">
@@ -1595,7 +1591,7 @@
         <v>0.3412285267687557</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>1.143899558325665</v>
+        <v>1.143899558325664</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>1.986331862038733</v>
@@ -1624,31 +1620,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.7272309956568893</v>
+        <v>-0.7266304893587128</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.3611277015935294</v>
+        <v>-0.3982560852672585</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.1017452055089177</v>
+        <v>0.07014616078765851</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.493487447401171</v>
+        <v>0.590074959503029</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.3703687965382477</v>
+        <v>0.4426344983045574</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>3.179158557146835</v>
+        <v>3.138934913942633</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2248952727675165</v>
+        <v>0.273182211844764</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.2811426055609673</v>
+        <v>0.3539599751693962</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>2.256805272263572</v>
+        <v>2.280909969441662</v>
       </c>
     </row>
     <row r="33">
@@ -1659,31 +1655,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.143211865134165</v>
+        <v>0.9918283223403254</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>2.264682873156873</v>
+        <v>2.004860564121311</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>3.50106439018886</v>
+        <v>3.776181434977874</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>4.905648116443868</v>
+        <v>5.049857207318078</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>4.432483532053602</v>
+        <v>4.730221294270832</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>12.99574370671963</v>
+        <v>13.39938957289812</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>2.616112858284913</v>
+        <v>2.579541007209703</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>2.676945652146414</v>
+        <v>2.757586239975366</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>7.517390364775952</v>
+        <v>7.090075404906424</v>
       </c>
     </row>
     <row r="34">
@@ -1713,7 +1709,7 @@
         <v>2.229999144203671</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>8.890710257212483</v>
+        <v>8.890710257212486</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>2.735472424429289</v>
@@ -1722,7 +1718,7 @@
         <v>1.786418493632579</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>7.177648635504981</v>
+        <v>7.177648635504983</v>
       </c>
     </row>
     <row r="35">
@@ -1737,25 +1733,25 @@
         <v>0</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>0.5599934293696681</v>
+        <v>0.5185916964546458</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>1.555408782859683</v>
+        <v>1.523185600029227</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>0.5028991827348797</v>
+        <v>0.3821033673074979</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>6.632718201851456</v>
+        <v>6.836653390548762</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>1.216717622284954</v>
+        <v>1.206215646711977</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>0.2488481965255271</v>
+        <v>0.3904623697993745</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>5.587973007835074</v>
+        <v>5.485005296871194</v>
       </c>
     </row>
     <row r="36">
@@ -1767,28 +1763,28 @@
       </c>
       <c r="C36" s="5" t="inlineStr"/>
       <c r="D36" s="5" t="n">
-        <v>2.075392136588125</v>
+        <v>2.313039894971481</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>3.437272437105702</v>
+        <v>3.30094277568764</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>5.456593287663194</v>
+        <v>5.354978064798034</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>4.178427075279211</v>
+        <v>4.095250931033876</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>10.89725114802427</v>
+        <v>11.0195586828678</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>4.29636221084331</v>
+        <v>4.290925943765348</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>3.300470354315868</v>
+        <v>3.387690367099805</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>8.959863849154148</v>
+        <v>8.867217096032432</v>
       </c>
     </row>
     <row r="37">
@@ -1816,7 +1812,7 @@
         <v>0.5993133457321037</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>2.389382670407921</v>
+        <v>2.389382670407922</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.9107136886463874</v>
@@ -1825,7 +1821,7 @@
         <v>0.5947476425910884</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>2.389635810718231</v>
+        <v>2.389635810718232</v>
       </c>
     </row>
     <row r="38">
@@ -1839,22 +1835,22 @@
       <c r="D38" s="6" t="inlineStr"/>
       <c r="E38" s="6" t="inlineStr"/>
       <c r="F38" s="6" t="n">
-        <v>0.3436010993185016</v>
+        <v>0.3137234920519646</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.107054140025653</v>
+        <v>0.08752964866849819</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>1.492163468452591</v>
+        <v>1.387258559643829</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.3179774841903069</v>
+        <v>0.3314844293013208</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.05054643183658279</v>
+        <v>0.09199538186866234</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>1.547790254535551</v>
+        <v>1.46021735023596</v>
       </c>
     </row>
     <row r="39">
@@ -1868,22 +1864,22 @@
       <c r="D39" s="6" t="inlineStr"/>
       <c r="E39" s="6" t="inlineStr"/>
       <c r="F39" s="6" t="n">
-        <v>1.754986858333571</v>
+        <v>1.686254603694766</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>1.358116373240024</v>
+        <v>1.369024435744004</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>3.692058247920881</v>
+        <v>3.649321410334516</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>1.801335249058096</v>
+        <v>1.684496327616311</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>1.407170707109012</v>
+        <v>1.404882014296866</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>3.888256309478787</v>
+        <v>3.68967455359742</v>
       </c>
     </row>
     <row r="40">
@@ -1913,7 +1909,7 @@
         <v>1.764553312972866</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>7.081609911026156</v>
+        <v>7.081609911026157</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>1.392336312214048</v>
@@ -1922,7 +1918,7 @@
         <v>0.9922728074400554</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>5.224230844328566</v>
+        <v>5.224230844328565</v>
       </c>
     </row>
     <row r="41">
@@ -1933,31 +1929,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-0.3409182948224348</v>
+        <v>-0.3309453596652918</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-0.4940906255655905</v>
+        <v>-0.3568785286205644</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>2.530969723880756</v>
+        <v>2.466349430807113</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1.544498773716956</v>
+        <v>1.487345384464067</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>0.8720010103901749</v>
+        <v>0.8879497251904215</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>6.090150012470191</v>
+        <v>6.151738073359172</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>0.8183393998738244</v>
+        <v>0.876233742480561</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>0.4345948082807712</v>
+        <v>0.4282999519819285</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>4.620890228812854</v>
+        <v>4.64561297110763</v>
       </c>
     </row>
     <row r="42">
@@ -1968,31 +1964,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>1.066090035217813</v>
+        <v>0.963672313338906</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>0.8045223649947961</v>
+        <v>0.842611775070108</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>4.088027974998405</v>
+        <v>3.991765169730219</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>3.404003491334114</v>
+        <v>3.315150436083341</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>2.737622700616548</v>
+        <v>2.729373356247364</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>8.016335170583108</v>
+        <v>7.944437421733206</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>1.949162963578216</v>
+        <v>1.995817417511725</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>1.560946299721879</v>
+        <v>1.530295435468517</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>5.821644528130228</v>
+        <v>5.858184057648294</v>
       </c>
     </row>
     <row r="43">
@@ -2027,7 +2023,7 @@
         <v>0.4873631377226897</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>2.565924932527631</v>
+        <v>2.56592493252763</v>
       </c>
     </row>
     <row r="44">
@@ -2038,31 +2034,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.2105792566015697</v>
+        <v>-0.2026969571278713</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.2674091598461137</v>
+        <v>-0.2090135711647138</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>1.356532692651953</v>
+        <v>1.356721726227211</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.5004373752149601</v>
+        <v>0.5051811798747323</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.2849806583590591</v>
+        <v>0.2917094479720066</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>1.934236272042245</v>
+        <v>1.961310317219735</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.3419255728517908</v>
+        <v>0.3769271474096065</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.1840428694310222</v>
+        <v>0.1796390832531998</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>1.963070271531112</v>
+        <v>2.038305458142999</v>
       </c>
     </row>
     <row r="45">
@@ -2073,31 +2069,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.9039995434703831</v>
+        <v>0.825695615305043</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.6707576355741207</v>
+        <v>0.7327149554931373</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>3.474320701391454</v>
+        <v>3.27828609118944</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>1.509464121537299</v>
+        <v>1.48049624147701</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>1.229718993149158</v>
+        <v>1.208017666940602</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>3.690024043625074</v>
+        <v>3.710438637320547</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>1.05088361827159</v>
+        <v>1.082539422409512</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.8642319805005552</v>
+        <v>0.8406713843611705</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>3.265101949427881</v>
+        <v>3.385247774550947</v>
       </c>
     </row>
     <row r="46">
